--- a/data/pecten.xlsx
+++ b/data/pecten.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="exprs" sheetId="1" state="visible" r:id="rId2"/>
@@ -156,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -177,6 +177,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -228,8 +235,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -241,7 +252,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -264,8 +275,8 @@
   </sheetPr>
   <dimension ref="A1:M767"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -276,43 +287,43 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -35734,76 +35745,76 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.47"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
